--- a/VB_Script/database/Insert/input.xlsx
+++ b/VB_Script/database/Insert/input.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\myToolBox\VB_Script\database\Insert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\myToolBox\VB_Script\database\Insert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304F2338-7F0B-42C8-83A4-FB980B3622A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E63A7B-8AE5-4423-BF49-81DFC1C15840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{CE8932EF-5C61-4719-B2B1-41D214598204}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{CE8932EF-5C61-4719-B2B1-41D214598204}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="FIELD_NAME" sheetId="2" r:id="rId2"/>
     <sheet name="tbl_Report_Stored_Procs" sheetId="3" r:id="rId3"/>
     <sheet name="tbl_Report_SP_Params" sheetId="4" r:id="rId4"/>
+    <sheet name="umtb_rprt_ad" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>NAME</t>
   </si>
@@ -85,16 +86,85 @@
   </si>
   <si>
     <t>toDate</t>
+  </si>
+  <si>
+    <t>ad_field_3</t>
+  </si>
+  <si>
+    <t>ad_field_2</t>
+  </si>
+  <si>
+    <t>ad_field_4</t>
+  </si>
+  <si>
+    <t>spartak_1</t>
+  </si>
+  <si>
+    <t>f15-1</t>
+  </si>
+  <si>
+    <t>sony_1</t>
+  </si>
+  <si>
+    <t>sony_2</t>
+  </si>
+  <si>
+    <t>sony_3</t>
+  </si>
+  <si>
+    <t>sony_4</t>
+  </si>
+  <si>
+    <t>sony_5</t>
+  </si>
+  <si>
+    <t>sony_6</t>
+  </si>
+  <si>
+    <t>f15-2</t>
+  </si>
+  <si>
+    <t>f15-3</t>
+  </si>
+  <si>
+    <t>f15-4</t>
+  </si>
+  <si>
+    <t>f15-5</t>
+  </si>
+  <si>
+    <t>f15-6</t>
+  </si>
+  <si>
+    <t>spartak_2</t>
+  </si>
+  <si>
+    <t>spartak_3</t>
+  </si>
+  <si>
+    <t>spartak_4</t>
+  </si>
+  <si>
+    <t>spartak_5</t>
+  </si>
+  <si>
+    <t>spartak_6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -140,9 +210,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +250,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -286,7 +356,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -428,7 +498,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -588,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9858A860-6598-45DA-8BE7-1BA86A18FE07}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -635,7 +705,115 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E82F21-4CCD-4CDB-9A22-F4F7BB6E242B}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8DF5C25D1EA3E468BF0004E328DAD79" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="59736f95ad78ea2028c7964c8d1c3193">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="287c22fe51d1c170db8afbacda89f399">
     <xsd:element name="properties">
@@ -749,22 +927,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D08A31DB-4CD3-49A6-A31B-72B7B91CF297}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D355CCE-D07B-4261-865B-3D92FAB1D8D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD0BE36F-C566-4D2B-BC8A-BDD52B682A52}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -778,27 +964,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D355CCE-D07B-4261-865B-3D92FAB1D8D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D08A31DB-4CD3-49A6-A31B-72B7B91CF297}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>